--- a/ResultadoEleicoesDistritos/SANTARÉM_ABRANTES.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_ABRANTES.xlsx
@@ -597,64 +597,64 @@
         <v>9314</v>
       </c>
       <c r="H2" t="n">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="I2" t="n">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="J2" t="n">
-        <v>3864</v>
+        <v>3849</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="M2" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S2" t="n">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="T2" t="n">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="U2" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>5952</v>
+        <v>5864</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5919</v>
+        <v>5971</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
